--- a/ThaumAge/Assets/Data/Excel/excel_wold_info[世界信息].xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_wold_info[世界信息].xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>备注</t>
-  </si>
-  <si>
-    <t>1,2,998</t>
   </si>
   <si>
     <t>测试世界</t>
@@ -1069,11 +1066,11 @@
       <c r="A4">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>998</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1081,10 +1078,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1095,7 +1092,7 @@
         <v>999</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/ThaumAge/Assets/Data/Excel/excel_wold_info[世界信息].xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_wold_info[世界信息].xlsx
@@ -4,12 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25575" windowHeight="10980"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="WorldInfo" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -43,7 +56,7 @@
     <t>测试世界</t>
   </si>
   <si>
-    <t>1,2</t>
+    <t>1,2,3,4,5,6,7,8,11,12</t>
   </si>
   <si>
     <t>主世界</t>
@@ -55,7 +68,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1020,7 +1033,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>

--- a/ThaumAge/Assets/Data/Excel/excel_wold_info[世界信息].xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_wold_info[世界信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="13425" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="WorldInfo" sheetId="1" r:id="rId1"/>
@@ -56,10 +56,10 @@
     <t>测试世界</t>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7,8,11,12</t>
+    <t>主世界</t>
   </si>
   <si>
-    <t>主世界</t>
+    <t>腐化世界-基础</t>
   </si>
   <si>
     <t>启动世界</t>
@@ -1030,13 +1030,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="47.625" customWidth="1"/>
     <col min="3" max="3" width="33.5" customWidth="1"/>
@@ -1090,21 +1090,32 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
+        <v>101</v>
+      </c>
+      <c r="B6">
+        <v>1001</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
         <v>99999</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>999</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
     </row>

--- a/ThaumAge/Assets/Data/Excel/excel_wold_info[世界信息].xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_wold_info[世界信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13425" windowHeight="12315"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="WorldInfo" sheetId="1" r:id="rId1"/>
@@ -1033,7 +1033,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>

--- a/ThaumAge/Assets/Data/Excel/excel_wold_info[世界信息].xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_wold_info[世界信息].xlsx
@@ -1033,7 +1033,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>

--- a/ThaumAge/Assets/Data/Excel/excel_wold_info[世界信息].xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_wold_info[世界信息].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>id</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>测试世界</t>
+  </si>
+  <si>
+    <t>2,3,4,6,7,8</t>
   </si>
   <si>
     <t>主世界</t>
@@ -1033,7 +1036,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -1090,11 +1093,11 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5">
-        <v>12</v>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1105,7 +1108,7 @@
         <v>1001</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1116,7 +1119,7 @@
         <v>999</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
